--- a/biology/Médecine/Muscle_oblique_supérieur_de_la_tête/Muscle_oblique_supérieur_de_la_tête.xlsx
+++ b/biology/Médecine/Muscle_oblique_supérieur_de_la_tête/Muscle_oblique_supérieur_de_la_tête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle oblique supérieur de la tête (ou muscle petit oblique de la tête selon l'ancienne dénomination) est un petit muscle profond postérieur du cou.
 C'est un des muscles sous-occipitaux et une partie du triangle sous-occipital.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il s'insère sur le sommet et la face supérieure du processus transverse de l'atlas.
-Trajet
-Il se dirige en haut et en arrière formant le côté supérieur et latéral du triangle sous-occipital.
-Terminaison
-Il se termine sur la face externe de l'os occipital sur le tiers latéral de la ligne nucale inférieure.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'insère sur le sommet et la face supérieure du processus transverse de l'atlas.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par la branche dorsale du premier nerf spinal cervical.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se dirige en haut et en arrière formant le côté supérieur et latéral du triangle sous-occipital.
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +596,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur la face externe de l'os occipital sur le tiers latéral de la ligne nucale inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par la branche dorsale du premier nerf spinal cervical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_oblique_supérieur_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_oblique_sup%C3%A9rieur_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il agit au niveau de l'articulation atlanto-occipitale pour étendre la tête et fléchir la tête du côté homolatéral
 </t>
